--- a/ej 2/bode- datos todos en un mismo formato.xlsx
+++ b/ej 2/bode- datos todos en un mismo formato.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Documents\GitHub\TC_TP1\ej 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rochi\Google Drive\Materias\Teoría de circuitos\TPs\TP1\TC_TP1\ej 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,11 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -90,6 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,15 +370,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D50"/>
+      <selection sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -391,8 +394,12 @@
       <c r="D1" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="4">
+        <f>20*LOG(C1/B1)</f>
+        <v>-8.7251535594666078E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>10</v>
       </c>
@@ -405,8 +412,12 @@
       <c r="D2" s="1">
         <v>-9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E50" si="0">20*LOG(C2/B2)</f>
+        <v>-0.12320617409636796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -419,8 +430,12 @@
       <c r="D3" s="1">
         <v>-17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.42378598139876095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>25</v>
       </c>
@@ -433,8 +448,12 @@
       <c r="D4" s="1">
         <v>-22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.60368364324229074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -447,8 +466,12 @@
       <c r="D5" s="1">
         <v>-24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.82874187634775376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>35</v>
       </c>
@@ -461,8 +484,12 @@
       <c r="D6" s="1">
         <v>-28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0823935287421929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -475,8 +502,12 @@
       <c r="D7" s="1">
         <v>-30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.3643440743194262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45</v>
       </c>
@@ -489,8 +520,12 @@
       <c r="D8" s="1">
         <v>-34</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.6486069420300387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>48</v>
       </c>
@@ -503,8 +538,12 @@
       <c r="D9" s="1">
         <v>-35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.8306336886810837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>49</v>
       </c>
@@ -517,8 +556,12 @@
       <c r="D10" s="1">
         <v>-36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.886491692364485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>52</v>
       </c>
@@ -531,8 +574,12 @@
       <c r="D11" s="1">
         <v>-37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.0725501633694505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>54</v>
       </c>
@@ -545,8 +592,12 @@
       <c r="D12" s="1">
         <v>-38</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.2022992058255104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>57</v>
       </c>
@@ -559,8 +610,12 @@
       <c r="D13" s="1">
         <v>-39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.3875505383561153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>58</v>
       </c>
@@ -573,8 +628,12 @@
       <c r="D14" s="1">
         <v>-40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.4595334611482906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>59</v>
       </c>
@@ -587,8 +646,12 @@
       <c r="D15" s="1">
         <v>-40</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5018069855178164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>60</v>
       </c>
@@ -601,8 +664,12 @@
       <c r="D16" s="1">
         <v>-41</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5658005197003968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>61</v>
       </c>
@@ -615,8 +682,12 @@
       <c r="D17" s="1">
         <v>-41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.6486142488326831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>62</v>
       </c>
@@ -629,8 +700,12 @@
       <c r="D18" s="1">
         <v>-42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.7047495603033052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>63</v>
       </c>
@@ -643,8 +718,12 @@
       <c r="D19" s="1">
         <v>-42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.7671933205303927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>64</v>
       </c>
@@ -657,8 +736,12 @@
       <c r="D20" s="1">
         <v>-43</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.8209702029792609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>65</v>
       </c>
@@ -671,8 +754,12 @@
       <c r="D21" s="1">
         <v>-43</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.8879228456186992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>66</v>
       </c>
@@ -685,8 +772,12 @@
       <c r="D22" s="1">
         <v>-43</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.9426987320740694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>67</v>
       </c>
@@ -699,8 +790,12 @@
       <c r="D23" s="1">
         <v>-45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.0200217023971136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>69</v>
       </c>
@@ -713,8 +808,12 @@
       <c r="D24" s="1">
         <v>-45</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.1373123169829564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>70</v>
       </c>
@@ -727,8 +826,12 @@
       <c r="D25" s="1">
         <v>-46</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.1980899592481209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>71</v>
       </c>
@@ -741,8 +844,12 @@
       <c r="D26" s="1">
         <v>-46</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.2778996139042142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>72</v>
       </c>
@@ -755,8 +862,12 @@
       <c r="D27" s="1">
         <v>-47</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.3266284353305005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>74</v>
       </c>
@@ -769,8 +880,12 @@
       <c r="D28" s="1">
         <v>-48</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.4486804150675781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>76</v>
       </c>
@@ -783,8 +898,12 @@
       <c r="D29" s="1">
         <v>-48</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.554089069347051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>78</v>
       </c>
@@ -797,8 +916,12 @@
       <c r="D30" s="1">
         <v>-49</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.6704643529702512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>81</v>
       </c>
@@ -811,8 +934,12 @@
       <c r="D31" s="1">
         <v>-50</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.8890882307010566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>84</v>
       </c>
@@ -825,8 +952,12 @@
       <c r="D32" s="1">
         <v>-50</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.0602511762519411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>88</v>
       </c>
@@ -839,8 +970,12 @@
       <c r="D33" s="1">
         <v>-51</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.3358147318723903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>92</v>
       </c>
@@ -853,8 +988,12 @@
       <c r="D34" s="1">
         <v>-53</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.5240211431209554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>100</v>
       </c>
@@ -865,10 +1004,15 @@
         <v>5.28</v>
       </c>
       <c r="D35" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>305-360</f>
+        <v>-55</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.9635537667741083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>110</v>
       </c>
@@ -881,8 +1025,12 @@
       <c r="D36" s="1">
         <v>-58</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.5657373705084288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>120</v>
       </c>
@@ -895,8 +1043,12 @@
       <c r="D37" s="1">
         <v>-60</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.0769410165842777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>130</v>
       </c>
@@ -909,8 +1061,12 @@
       <c r="D38" s="1">
         <v>-62</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.5930767277133429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>140</v>
       </c>
@@ -923,8 +1079,12 @@
       <c r="D39" s="1">
         <v>-65</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.1215512398977321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>155</v>
       </c>
@@ -937,8 +1097,12 @@
       <c r="D40" s="1">
         <v>-66</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.8648977492731547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>170</v>
       </c>
@@ -951,8 +1115,12 @@
       <c r="D41" s="1">
         <v>-67</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.5193746454456214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>200</v>
       </c>
@@ -965,8 +1133,12 @@
       <c r="D42" s="1">
         <v>-70</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.7049616190071735</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>300</v>
       </c>
@@ -979,8 +1151,12 @@
       <c r="D43" s="1">
         <v>-76</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>-12.796971044347243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>400</v>
       </c>
@@ -993,8 +1169,12 @@
       <c r="D44" s="1">
         <v>-78</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>-15.383733576054135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>500</v>
       </c>
@@ -1007,8 +1187,12 @@
       <c r="D45" s="1">
         <v>-80</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>-17.213945481040778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>620</v>
       </c>
@@ -1021,8 +1205,12 @@
       <c r="D46" s="1">
         <v>-81</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>-18.970560518297908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>660</v>
       </c>
@@ -1035,8 +1223,12 @@
       <c r="D47" s="1">
         <v>-82</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>-19.407129268211364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>750</v>
       </c>
@@ -1049,8 +1241,12 @@
       <c r="D48" s="1">
         <v>-82</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>-20.443002559232713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>900</v>
       </c>
@@ -1063,8 +1259,12 @@
       <c r="D49" s="1">
         <v>-85</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>-21.847297803860997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1000</v>
       </c>
@@ -1075,7 +1275,11 @@
         <v>0.67</v>
       </c>
       <c r="D50" s="1">
-        <v>275</v>
+        <v>-85</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>-22.64022091640517</v>
       </c>
     </row>
   </sheetData>
